--- a/results/mp/tinybert/corona/confidence/168/0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,97 +46,145 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -494,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -563,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7207792207792207</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -663,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3562231759656652</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2375</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>61</v>
+        <v>414</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,137 +811,89 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2209302325581395</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>335</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8478260869565217</v>
+      </c>
+      <c r="L7">
+        <v>39</v>
+      </c>
+      <c r="M7">
+        <v>39</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>67</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K8">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L7">
-        <v>45</v>
-      </c>
-      <c r="M7">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>116</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L8">
-        <v>23</v>
-      </c>
-      <c r="M8">
-        <v>23</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>96</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.803921568627451</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -905,21 +905,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8035714285714286</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -936,16 +936,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7962962962962963</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -957,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7586206896551724</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -983,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7241379310344828</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1009,21 +1009,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.72</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1035,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7083333333333334</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1061,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6986301369863014</v>
+        <v>0.6875</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1087,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1113,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1139,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6060606060606061</v>
+        <v>0.6549295774647887</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1165,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5352112676056338</v>
+        <v>0.62</v>
       </c>
       <c r="L20">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1191,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5333333333333333</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1217,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1243,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.5639686684073107</v>
       </c>
       <c r="L23">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="M23">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1269,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>72</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4961240310077519</v>
+        <v>0.5625</v>
       </c>
       <c r="L24">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1295,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1321,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.03902439024390244</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1347,33 +1347,501 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>394</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="L27">
+        <v>130</v>
+      </c>
+      <c r="M27">
+        <v>130</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L28">
+        <v>39</v>
+      </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K27">
-        <v>0.01147446930579461</v>
-      </c>
-      <c r="L27">
-        <v>20</v>
-      </c>
-      <c r="M27">
-        <v>23</v>
-      </c>
-      <c r="N27">
-        <v>0.87</v>
-      </c>
-      <c r="O27">
-        <v>0.13</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1723</v>
+      <c r="K29">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0.3389121338912134</v>
+      </c>
+      <c r="L31">
+        <v>81</v>
+      </c>
+      <c r="M31">
+        <v>81</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.04250559284116331</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="L33">
+        <v>34</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.03666666666666667</v>
+      </c>
+      <c r="L34">
+        <v>44</v>
+      </c>
+      <c r="M34">
+        <v>44</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.0207416719044626</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>0.92</v>
+      </c>
+      <c r="O35">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>0.02022471910112359</v>
+      </c>
+      <c r="L36">
+        <v>54</v>
+      </c>
+      <c r="M36">
+        <v>57</v>
+      </c>
+      <c r="N36">
+        <v>0.95</v>
+      </c>
+      <c r="O36">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.01923864101514531</v>
+      </c>
+      <c r="L37">
+        <v>47</v>
+      </c>
+      <c r="M37">
+        <v>49</v>
+      </c>
+      <c r="N37">
+        <v>0.96</v>
+      </c>
+      <c r="O37">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>0.01774871555347968</v>
+      </c>
+      <c r="L38">
+        <v>38</v>
+      </c>
+      <c r="M38">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>0.95</v>
+      </c>
+      <c r="O38">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>0.01503933364183248</v>
+      </c>
+      <c r="L39">
+        <v>65</v>
+      </c>
+      <c r="M39">
+        <v>71</v>
+      </c>
+      <c r="N39">
+        <v>0.92</v>
+      </c>
+      <c r="O39">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>0.01344902386117137</v>
+      </c>
+      <c r="L40">
+        <v>31</v>
+      </c>
+      <c r="M40">
+        <v>35</v>
+      </c>
+      <c r="N40">
+        <v>0.89</v>
+      </c>
+      <c r="O40">
+        <v>0.11</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41">
+        <v>0.01342685370741483</v>
+      </c>
+      <c r="L41">
+        <v>67</v>
+      </c>
+      <c r="M41">
+        <v>73</v>
+      </c>
+      <c r="N41">
+        <v>0.92</v>
+      </c>
+      <c r="O41">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42">
+        <v>0.01263157894736842</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>34</v>
+      </c>
+      <c r="N42">
+        <v>0.88</v>
+      </c>
+      <c r="O42">
+        <v>0.12</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43">
+        <v>0.01159554730983302</v>
+      </c>
+      <c r="L43">
+        <v>25</v>
+      </c>
+      <c r="M43">
+        <v>27</v>
+      </c>
+      <c r="N43">
+        <v>0.93</v>
+      </c>
+      <c r="O43">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44">
+        <v>0.01085481682496608</v>
+      </c>
+      <c r="L44">
+        <v>56</v>
+      </c>
+      <c r="M44">
+        <v>62</v>
+      </c>
+      <c r="N44">
+        <v>0.9</v>
+      </c>
+      <c r="O44">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45">
+        <v>0.009674298613350531</v>
+      </c>
+      <c r="L45">
+        <v>30</v>
+      </c>
+      <c r="M45">
+        <v>36</v>
+      </c>
+      <c r="N45">
+        <v>0.83</v>
+      </c>
+      <c r="O45">
+        <v>0.17</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3071</v>
       </c>
     </row>
   </sheetData>
